--- a/MONEY.xlsx
+++ b/MONEY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okdon\git\AE\TDbank-Auto-Ledger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C644AC7-2D21-4474-8ACA-EA0F74D25C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC31CC9-1639-4D36-8EF3-7C75AFB39B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23505" yWindow="1785" windowWidth="21330" windowHeight="15690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>date</t>
   </si>
@@ -49,6 +49,10 @@
   </si>
   <si>
     <t>money from month</t>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -384,9 +388,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -424,6 +430,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MONEY.xlsx
+++ b/MONEY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okdon\git\AE\TDbank-Auto-Ledger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC31CC9-1639-4D36-8EF3-7C75AFB39B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94657DF7-CB7B-4874-A1D4-ADBCF0851C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23505" yWindow="1785" windowWidth="21330" windowHeight="15690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>date</t>
   </si>
@@ -49,10 +49,6 @@
   </si>
   <si>
     <t>money from month</t>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -388,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -430,11 +426,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D21" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
